--- a/Nissan_dc_report_17feb2020.xlsx
+++ b/Nissan_dc_report_17feb2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\Documents\Bug Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE0090A-211C-4BBD-8C68-0E77387A9818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C940D-E854-4B0F-B157-E08F2049C3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3875579A-2917-4D2C-A130-05341B0EFB1C}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
   <si>
     <t>Project :-</t>
-  </si>
-  <si>
-    <t>Lead_Developer. :-</t>
   </si>
   <si>
     <t>Created_By :-</t>
@@ -152,6 +149,12 @@
   </si>
   <si>
     <t>1)Download the NC Claim Periodic Maintenance report .                                2)Check the details of the report against the details of portal for any selected service request number.</t>
+  </si>
+  <si>
+    <t>Lead_Developer. :- Vikash Jha</t>
+  </si>
+  <si>
+    <t>Ranjeet</t>
   </si>
 </sst>
 </file>
@@ -771,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD87D2D-F5E9-4042-9079-319B9504D2E5}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +823,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="7"/>
@@ -833,19 +836,19 @@
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
@@ -858,55 +861,55 @@
     </row>
     <row r="4" spans="1:17" s="13" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -917,10 +920,13 @@
         <v>10055</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,10 +935,13 @@
         <v>10055</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
